--- a/SPARK/Assets/Resources/xml/haru_messageDrop.xlsx
+++ b/SPARK/Assets/Resources/xml/haru_messageDrop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\富澤勇太\Documents\SPARK\SPARK\Assets\Resources\xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{92891034-4CE3-4025-AF22-B55040D82911}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AFAC00-A9CA-4DED-A2BC-03172414B692}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{EC73BAE3-5C5E-4EBD-8FD4-8E2F66985A7D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>EventTitle:</t>
     <phoneticPr fontId="1"/>
@@ -64,58 +64,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name1</t>
-  </si>
-  <si>
-    <t>name2</t>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ハル……！」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ハル待って……！」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「本当に、ハルだったんだ……
+ハルはまだ死んでないよ、きっと……」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yaku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moveStart</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>empty</t>
-  </si>
-  <si>
-    <t>name3</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>Right</t>
-  </si>
-  <si>
-    <t>Bottom</t>
-  </si>
-  <si>
-    <t>かきくけこ</t>
-  </si>
-  <si>
-    <t>さしすせそ
-たちつてと
-なにぬねの</t>
-  </si>
-  <si>
-    <t>おむらいす</t>
-  </si>
-  <si>
-    <t>はんばーぐ</t>
-  </si>
-  <si>
-    <t>name10</t>
-  </si>
-  <si>
-    <t>からあげ</t>
-  </si>
-  <si>
-    <t>Bold</t>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハルがメッセージを落としていくシーン</t>
-    <rPh sb="9" eb="10">
-      <t>オ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -149,20 +126,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -171,7 +167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,6 +179,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,7 +570,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -590,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -615,16 +614,16 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -632,85 +631,52 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
